--- a/projects/test_building/input/Scenario_Radiator.xlsx
+++ b/projects/test_building/input/Scenario_Radiator.xlsx
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>id_building_construction_period</t>
-  </si>
-  <si>
-    <t>factor</t>
   </si>
   <si>
     <t>2021</t>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>id_building_type</t>
+  </si>
+  <si>
+    <t>fraction</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:AT417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -702,94 +702,94 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3466,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4726,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5566,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6546,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6826,7 +6826,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -7246,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -8506,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -9206,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -9346,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -9766,7 +9766,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -9906,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -10466,7 +10466,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -10606,7 +10606,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -11306,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -12006,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -12286,7 +12286,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -12426,7 +12426,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -12706,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -12846,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -12986,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -13546,7 +13546,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -13686,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -13826,7 +13826,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -14386,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -14526,7 +14526,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -14666,7 +14666,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -14806,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -14946,7 +14946,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -15226,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -15366,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -15506,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -15646,7 +15646,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -15786,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -16206,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -16346,7 +16346,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -16486,7 +16486,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -16626,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -16766,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -16906,7 +16906,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -17046,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -17186,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -17326,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -17466,7 +17466,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -17606,7 +17606,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -17746,7 +17746,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -17886,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -18026,7 +18026,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -18166,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -18306,7 +18306,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -18446,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -18586,7 +18586,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -18866,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -19006,7 +19006,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -19286,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -19426,7 +19426,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -19566,7 +19566,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -19706,7 +19706,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -19846,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -19986,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -20126,7 +20126,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -20266,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -20406,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -20546,7 +20546,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -20686,7 +20686,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -20826,7 +20826,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -21106,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -21246,7 +21246,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -21386,7 +21386,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -21526,7 +21526,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -21666,7 +21666,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -21946,7 +21946,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -22086,7 +22086,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -22226,7 +22226,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -22366,7 +22366,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -22506,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -22646,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -22786,7 +22786,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -22926,7 +22926,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -23066,7 +23066,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -23206,7 +23206,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -23346,7 +23346,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -23486,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -23626,7 +23626,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -23766,7 +23766,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -23906,7 +23906,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -24186,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -24466,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -24606,7 +24606,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -24746,7 +24746,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -25026,7 +25026,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -25166,7 +25166,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -25306,7 +25306,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -25446,7 +25446,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -25586,7 +25586,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -25726,7 +25726,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -25866,7 +25866,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -26006,7 +26006,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -26146,7 +26146,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -26286,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -26426,7 +26426,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -26566,7 +26566,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -26706,7 +26706,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -26846,7 +26846,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -26986,7 +26986,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -27126,7 +27126,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -27266,7 +27266,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -27546,7 +27546,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -27686,7 +27686,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -27826,7 +27826,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -27966,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -28106,7 +28106,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -28246,7 +28246,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -28386,7 +28386,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -28526,7 +28526,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -28666,7 +28666,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -28806,7 +28806,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -28946,7 +28946,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -29086,7 +29086,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -29226,7 +29226,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -29366,7 +29366,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -29506,7 +29506,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -29786,7 +29786,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -29926,7 +29926,7 @@
         <v>2</v>
       </c>
       <c r="E210" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -30066,7 +30066,7 @@
         <v>2</v>
       </c>
       <c r="E211" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -30206,7 +30206,7 @@
         <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -30346,7 +30346,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -30486,7 +30486,7 @@
         <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -30626,7 +30626,7 @@
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -30766,7 +30766,7 @@
         <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -30906,7 +30906,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -31046,7 +31046,7 @@
         <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -31186,7 +31186,7 @@
         <v>2</v>
       </c>
       <c r="E219" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -31326,7 +31326,7 @@
         <v>2</v>
       </c>
       <c r="E220" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -31466,7 +31466,7 @@
         <v>2</v>
       </c>
       <c r="E221" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -31606,7 +31606,7 @@
         <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -31746,7 +31746,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -31886,7 +31886,7 @@
         <v>2</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -32026,7 +32026,7 @@
         <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -32166,7 +32166,7 @@
         <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -32306,7 +32306,7 @@
         <v>2</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -32446,7 +32446,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -32586,7 +32586,7 @@
         <v>2</v>
       </c>
       <c r="E229" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -32726,7 +32726,7 @@
         <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -32866,7 +32866,7 @@
         <v>2</v>
       </c>
       <c r="E231" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -33006,7 +33006,7 @@
         <v>2</v>
       </c>
       <c r="E232" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -33146,7 +33146,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -33286,7 +33286,7 @@
         <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -33426,7 +33426,7 @@
         <v>2</v>
       </c>
       <c r="E235" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -33566,7 +33566,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -33706,7 +33706,7 @@
         <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -33846,7 +33846,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -33986,7 +33986,7 @@
         <v>2</v>
       </c>
       <c r="E239" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -34126,7 +34126,7 @@
         <v>2</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -34266,7 +34266,7 @@
         <v>2</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -34406,7 +34406,7 @@
         <v>2</v>
       </c>
       <c r="E242" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -34546,7 +34546,7 @@
         <v>2</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -34686,7 +34686,7 @@
         <v>2</v>
       </c>
       <c r="E244" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -34826,7 +34826,7 @@
         <v>2</v>
       </c>
       <c r="E245" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -34966,7 +34966,7 @@
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -35106,7 +35106,7 @@
         <v>2</v>
       </c>
       <c r="E247" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -35246,7 +35246,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -35386,7 +35386,7 @@
         <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -35526,7 +35526,7 @@
         <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -35666,7 +35666,7 @@
         <v>2</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -35806,7 +35806,7 @@
         <v>2</v>
       </c>
       <c r="E252" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -35946,7 +35946,7 @@
         <v>2</v>
       </c>
       <c r="E253" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -36086,7 +36086,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -36226,7 +36226,7 @@
         <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -36366,7 +36366,7 @@
         <v>2</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -36506,7 +36506,7 @@
         <v>2</v>
       </c>
       <c r="E257" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -36646,7 +36646,7 @@
         <v>2</v>
       </c>
       <c r="E258" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -36786,7 +36786,7 @@
         <v>2</v>
       </c>
       <c r="E259" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -36926,7 +36926,7 @@
         <v>2</v>
       </c>
       <c r="E260" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -37066,7 +37066,7 @@
         <v>2</v>
       </c>
       <c r="E261" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -37206,7 +37206,7 @@
         <v>2</v>
       </c>
       <c r="E262" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -37346,7 +37346,7 @@
         <v>2</v>
       </c>
       <c r="E263" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -37486,7 +37486,7 @@
         <v>2</v>
       </c>
       <c r="E264" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -37626,7 +37626,7 @@
         <v>2</v>
       </c>
       <c r="E265" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -37766,7 +37766,7 @@
         <v>2</v>
       </c>
       <c r="E266" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -37906,7 +37906,7 @@
         <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -38046,7 +38046,7 @@
         <v>2</v>
       </c>
       <c r="E268" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -38186,7 +38186,7 @@
         <v>2</v>
       </c>
       <c r="E269" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -38326,7 +38326,7 @@
         <v>2</v>
       </c>
       <c r="E270" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -38466,7 +38466,7 @@
         <v>2</v>
       </c>
       <c r="E271" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -38606,7 +38606,7 @@
         <v>2</v>
       </c>
       <c r="E272" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -38746,7 +38746,7 @@
         <v>2</v>
       </c>
       <c r="E273" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -38886,7 +38886,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -39026,7 +39026,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -39166,7 +39166,7 @@
         <v>2</v>
       </c>
       <c r="E276" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -39306,7 +39306,7 @@
         <v>2</v>
       </c>
       <c r="E277" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -39446,7 +39446,7 @@
         <v>2</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -39586,7 +39586,7 @@
         <v>2</v>
       </c>
       <c r="E279" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -39726,7 +39726,7 @@
         <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -39866,7 +39866,7 @@
         <v>2</v>
       </c>
       <c r="E281" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -40006,7 +40006,7 @@
         <v>2</v>
       </c>
       <c r="E282" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -40146,7 +40146,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -40286,7 +40286,7 @@
         <v>2</v>
       </c>
       <c r="E284" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -40426,7 +40426,7 @@
         <v>2</v>
       </c>
       <c r="E285" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -40566,7 +40566,7 @@
         <v>2</v>
       </c>
       <c r="E286" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -40706,7 +40706,7 @@
         <v>2</v>
       </c>
       <c r="E287" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -40846,7 +40846,7 @@
         <v>2</v>
       </c>
       <c r="E288" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -40986,7 +40986,7 @@
         <v>2</v>
       </c>
       <c r="E289" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -41126,7 +41126,7 @@
         <v>2</v>
       </c>
       <c r="E290" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -41266,7 +41266,7 @@
         <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -41406,7 +41406,7 @@
         <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -41546,7 +41546,7 @@
         <v>2</v>
       </c>
       <c r="E293" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -41686,7 +41686,7 @@
         <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -41826,7 +41826,7 @@
         <v>2</v>
       </c>
       <c r="E295" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -41966,7 +41966,7 @@
         <v>2</v>
       </c>
       <c r="E296" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -42106,7 +42106,7 @@
         <v>2</v>
       </c>
       <c r="E297" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -42246,7 +42246,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -42386,7 +42386,7 @@
         <v>2</v>
       </c>
       <c r="E299" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -42526,7 +42526,7 @@
         <v>2</v>
       </c>
       <c r="E300" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -42666,7 +42666,7 @@
         <v>2</v>
       </c>
       <c r="E301" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -42806,7 +42806,7 @@
         <v>2</v>
       </c>
       <c r="E302" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -42946,7 +42946,7 @@
         <v>2</v>
       </c>
       <c r="E303" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -43086,7 +43086,7 @@
         <v>2</v>
       </c>
       <c r="E304" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -43226,7 +43226,7 @@
         <v>2</v>
       </c>
       <c r="E305" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -43366,7 +43366,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -43506,7 +43506,7 @@
         <v>2</v>
       </c>
       <c r="E307" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -43646,7 +43646,7 @@
         <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -43786,7 +43786,7 @@
         <v>2</v>
       </c>
       <c r="E309" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -43926,7 +43926,7 @@
         <v>2</v>
       </c>
       <c r="E310" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -44066,7 +44066,7 @@
         <v>2</v>
       </c>
       <c r="E311" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -44206,7 +44206,7 @@
         <v>2</v>
       </c>
       <c r="E312" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -44346,7 +44346,7 @@
         <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -44486,7 +44486,7 @@
         <v>2</v>
       </c>
       <c r="E314" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -44626,7 +44626,7 @@
         <v>2</v>
       </c>
       <c r="E315" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -44766,7 +44766,7 @@
         <v>2</v>
       </c>
       <c r="E316" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -44906,7 +44906,7 @@
         <v>2</v>
       </c>
       <c r="E317" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -45046,7 +45046,7 @@
         <v>2</v>
       </c>
       <c r="E318" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -45186,7 +45186,7 @@
         <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -45326,7 +45326,7 @@
         <v>2</v>
       </c>
       <c r="E320" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -45466,7 +45466,7 @@
         <v>2</v>
       </c>
       <c r="E321" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -45606,7 +45606,7 @@
         <v>2</v>
       </c>
       <c r="E322" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -45746,7 +45746,7 @@
         <v>2</v>
       </c>
       <c r="E323" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -45886,7 +45886,7 @@
         <v>2</v>
       </c>
       <c r="E324" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -46026,7 +46026,7 @@
         <v>2</v>
       </c>
       <c r="E325" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -46166,7 +46166,7 @@
         <v>2</v>
       </c>
       <c r="E326" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -46306,7 +46306,7 @@
         <v>2</v>
       </c>
       <c r="E327" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -46446,7 +46446,7 @@
         <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -46586,7 +46586,7 @@
         <v>2</v>
       </c>
       <c r="E329" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -46726,7 +46726,7 @@
         <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -46866,7 +46866,7 @@
         <v>2</v>
       </c>
       <c r="E331" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -47006,7 +47006,7 @@
         <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -47146,7 +47146,7 @@
         <v>2</v>
       </c>
       <c r="E333" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -47286,7 +47286,7 @@
         <v>2</v>
       </c>
       <c r="E334" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -47426,7 +47426,7 @@
         <v>2</v>
       </c>
       <c r="E335" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -47566,7 +47566,7 @@
         <v>2</v>
       </c>
       <c r="E336" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -47706,7 +47706,7 @@
         <v>2</v>
       </c>
       <c r="E337" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -47846,7 +47846,7 @@
         <v>2</v>
       </c>
       <c r="E338" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -47986,7 +47986,7 @@
         <v>2</v>
       </c>
       <c r="E339" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -48126,7 +48126,7 @@
         <v>2</v>
       </c>
       <c r="E340" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -48266,7 +48266,7 @@
         <v>2</v>
       </c>
       <c r="E341" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -48406,7 +48406,7 @@
         <v>2</v>
       </c>
       <c r="E342" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -48546,7 +48546,7 @@
         <v>2</v>
       </c>
       <c r="E343" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -48686,7 +48686,7 @@
         <v>2</v>
       </c>
       <c r="E344" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -48826,7 +48826,7 @@
         <v>2</v>
       </c>
       <c r="E345" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -48966,7 +48966,7 @@
         <v>2</v>
       </c>
       <c r="E346" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -49106,7 +49106,7 @@
         <v>2</v>
       </c>
       <c r="E347" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -49246,7 +49246,7 @@
         <v>2</v>
       </c>
       <c r="E348" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -49386,7 +49386,7 @@
         <v>2</v>
       </c>
       <c r="E349" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -49526,7 +49526,7 @@
         <v>2</v>
       </c>
       <c r="E350" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -49666,7 +49666,7 @@
         <v>2</v>
       </c>
       <c r="E351" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -49806,7 +49806,7 @@
         <v>2</v>
       </c>
       <c r="E352" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -49946,7 +49946,7 @@
         <v>2</v>
       </c>
       <c r="E353" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -50086,7 +50086,7 @@
         <v>2</v>
       </c>
       <c r="E354" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -50226,7 +50226,7 @@
         <v>2</v>
       </c>
       <c r="E355" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -50366,7 +50366,7 @@
         <v>2</v>
       </c>
       <c r="E356" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -50506,7 +50506,7 @@
         <v>2</v>
       </c>
       <c r="E357" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -50646,7 +50646,7 @@
         <v>2</v>
       </c>
       <c r="E358" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -50786,7 +50786,7 @@
         <v>2</v>
       </c>
       <c r="E359" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -50926,7 +50926,7 @@
         <v>2</v>
       </c>
       <c r="E360" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -51066,7 +51066,7 @@
         <v>2</v>
       </c>
       <c r="E361" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -51206,7 +51206,7 @@
         <v>2</v>
       </c>
       <c r="E362" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -51346,7 +51346,7 @@
         <v>2</v>
       </c>
       <c r="E363" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -51486,7 +51486,7 @@
         <v>2</v>
       </c>
       <c r="E364" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F364">
         <v>1</v>
@@ -51626,7 +51626,7 @@
         <v>2</v>
       </c>
       <c r="E365" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -51766,7 +51766,7 @@
         <v>2</v>
       </c>
       <c r="E366" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -51906,7 +51906,7 @@
         <v>2</v>
       </c>
       <c r="E367" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -52046,7 +52046,7 @@
         <v>2</v>
       </c>
       <c r="E368" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -52186,7 +52186,7 @@
         <v>2</v>
       </c>
       <c r="E369" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -52326,7 +52326,7 @@
         <v>2</v>
       </c>
       <c r="E370" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -52466,7 +52466,7 @@
         <v>2</v>
       </c>
       <c r="E371" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -52606,7 +52606,7 @@
         <v>2</v>
       </c>
       <c r="E372" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -52746,7 +52746,7 @@
         <v>2</v>
       </c>
       <c r="E373" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F373">
         <v>1</v>
@@ -52886,7 +52886,7 @@
         <v>2</v>
       </c>
       <c r="E374" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -53026,7 +53026,7 @@
         <v>2</v>
       </c>
       <c r="E375" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -53166,7 +53166,7 @@
         <v>2</v>
       </c>
       <c r="E376" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -53306,7 +53306,7 @@
         <v>2</v>
       </c>
       <c r="E377" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -53446,7 +53446,7 @@
         <v>2</v>
       </c>
       <c r="E378" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -53586,7 +53586,7 @@
         <v>2</v>
       </c>
       <c r="E379" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="E380" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -53866,7 +53866,7 @@
         <v>2</v>
       </c>
       <c r="E381" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -54006,7 +54006,7 @@
         <v>2</v>
       </c>
       <c r="E382" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -54146,7 +54146,7 @@
         <v>2</v>
       </c>
       <c r="E383" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -54286,7 +54286,7 @@
         <v>2</v>
       </c>
       <c r="E384" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -54426,7 +54426,7 @@
         <v>2</v>
       </c>
       <c r="E385" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -54566,7 +54566,7 @@
         <v>2</v>
       </c>
       <c r="E386" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F386">
         <v>1</v>
@@ -54706,7 +54706,7 @@
         <v>2</v>
       </c>
       <c r="E387" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -54846,7 +54846,7 @@
         <v>2</v>
       </c>
       <c r="E388" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -54986,7 +54986,7 @@
         <v>2</v>
       </c>
       <c r="E389" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -55126,7 +55126,7 @@
         <v>2</v>
       </c>
       <c r="E390" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F390">
         <v>1</v>
@@ -55266,7 +55266,7 @@
         <v>2</v>
       </c>
       <c r="E391" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -55406,7 +55406,7 @@
         <v>2</v>
       </c>
       <c r="E392" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -55546,7 +55546,7 @@
         <v>2</v>
       </c>
       <c r="E393" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F393">
         <v>1</v>
@@ -55686,7 +55686,7 @@
         <v>2</v>
       </c>
       <c r="E394" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -55826,7 +55826,7 @@
         <v>2</v>
       </c>
       <c r="E395" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -55966,7 +55966,7 @@
         <v>2</v>
       </c>
       <c r="E396" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -56106,7 +56106,7 @@
         <v>2</v>
       </c>
       <c r="E397" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F397">
         <v>1</v>
@@ -56246,7 +56246,7 @@
         <v>2</v>
       </c>
       <c r="E398" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -56386,7 +56386,7 @@
         <v>2</v>
       </c>
       <c r="E399" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F399">
         <v>1</v>
@@ -56526,7 +56526,7 @@
         <v>2</v>
       </c>
       <c r="E400" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F400">
         <v>1</v>
@@ -56666,7 +56666,7 @@
         <v>2</v>
       </c>
       <c r="E401" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F401">
         <v>1</v>
@@ -56806,7 +56806,7 @@
         <v>2</v>
       </c>
       <c r="E402" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -56946,7 +56946,7 @@
         <v>2</v>
       </c>
       <c r="E403" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F403">
         <v>1</v>
@@ -57086,7 +57086,7 @@
         <v>2</v>
       </c>
       <c r="E404" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F404">
         <v>1</v>
@@ -57226,7 +57226,7 @@
         <v>2</v>
       </c>
       <c r="E405" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -57366,7 +57366,7 @@
         <v>2</v>
       </c>
       <c r="E406" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -57506,7 +57506,7 @@
         <v>2</v>
       </c>
       <c r="E407" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F407">
         <v>1</v>
@@ -57646,7 +57646,7 @@
         <v>2</v>
       </c>
       <c r="E408" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F408">
         <v>1</v>
@@ -57786,7 +57786,7 @@
         <v>2</v>
       </c>
       <c r="E409" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -57926,7 +57926,7 @@
         <v>2</v>
       </c>
       <c r="E410" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -58066,7 +58066,7 @@
         <v>2</v>
       </c>
       <c r="E411" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -58206,7 +58206,7 @@
         <v>2</v>
       </c>
       <c r="E412" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F412">
         <v>1</v>
@@ -58346,7 +58346,7 @@
         <v>2</v>
       </c>
       <c r="E413" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F413">
         <v>1</v>
@@ -58486,7 +58486,7 @@
         <v>2</v>
       </c>
       <c r="E414" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F414">
         <v>1</v>
@@ -58626,7 +58626,7 @@
         <v>2</v>
       </c>
       <c r="E415" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F415">
         <v>1</v>
@@ -58766,7 +58766,7 @@
         <v>2</v>
       </c>
       <c r="E416" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F416">
         <v>1</v>
@@ -58906,7 +58906,7 @@
         <v>2</v>
       </c>
       <c r="E417" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F417">
         <v>1</v>
